--- a/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
+++ b/codigo_final_organizado/analisis/Resultados_analisis/Proporciones/Comparaciones_Entre_Proporciones/dm_proporciones_resumen_AREPD_Lineal_No_Estacionario_ARIMA.xlsx
@@ -423,7 +423,7 @@
         <v>4</v>
       </c>
       <c r="E2">
-        <v>5.125631466033672</v>
+        <v>10.74324044592336</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -440,7 +440,7 @@
         <v>4</v>
       </c>
       <c r="E3">
-        <v>7.29228677193038</v>
+        <v>9.920546923731811</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -457,7 +457,7 @@
         <v>4</v>
       </c>
       <c r="E4">
-        <v>8.100587370775834</v>
+        <v>10.69214990499799</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -474,7 +474,7 @@
         <v>4</v>
       </c>
       <c r="E5">
-        <v>6.489367220625381</v>
+        <v>10.98908155287246</v>
       </c>
     </row>
     <row r="6" spans="1:5">
@@ -491,7 +491,7 @@
         <v>4</v>
       </c>
       <c r="E6">
-        <v>7.052496579093455</v>
+        <v>9.071006213509772</v>
       </c>
     </row>
   </sheetData>
